--- a/data/municipios_espana_clasificacion.xlsx
+++ b/data/municipios_espana_clasificacion.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -442,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -461,91 +461,61 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Sartaguda</t>
+          <t>Tudela</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4.29</v>
+        <v>154.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Sesma</t>
+          <t>Tafalla</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3.83</v>
+        <v>44.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Sorlada</t>
+          <t>Sartaguda</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.17</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Sumbilla</t>
+          <t>Sesma</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.25</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Tafalla</t>
+          <t>Sorlada</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>35.27</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Tiebas-Muruarte de Reta</t>
+          <t>Ulzama</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Tudela</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>123.36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Tulebras</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Ulzama</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>5.56</v>
+        <v>33.38</v>
       </c>
     </row>
   </sheetData>

--- a/data/municipios_espana_clasificacion.xlsx
+++ b/data/municipios_espana_clasificacion.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -442,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -461,61 +461,1001 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Tudela</t>
+          <t>Monesma de Benabarre</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>326.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Tafalla</t>
+          <t>Cajigar</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>95.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Sartaguda</t>
+          <t>Librilla</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>25.24</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Sesma</t>
+          <t>San Jaime de Enveija</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>22.53</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Sorlada</t>
+          <t>Villalcázar de Sirga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Ulzama</t>
+          <t>Vilanova de Escornalbou</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>32.73</v>
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Moncada</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>122.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Museros</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>59.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>El Palmar de Troya</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>40.46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Garcihernández</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>La Alberca</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Redecilla del Camino</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Rabé de las Calzadas</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Pedraza</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Cieza</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>178.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Villarmentero de Campos</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Colmenar</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Somosierra</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>San Cebrián de Campos</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Moratinos</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Calamonte</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Señera</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Villalbos</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Capella</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Margalef de Montsant</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Alarcón</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Sena</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>La Sierpe</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Tolva</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Talavera</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Simat de Valldigna</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44.65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Cendea de Olza</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Creixell</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Fortuna</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Beranuy</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Pego</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Paiporta</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>147.33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Sedaví</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>75.77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Masanasa</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>74.81999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>73.89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Vilasacra</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Godelleta</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>48.58</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Tossalnou</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Cirueches</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Cendea de Iza</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Valle de Aibar</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Rello</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Cuevas del Almanzora</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>95.16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Chirivel</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Rebollar</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Garray</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Fuencarral</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Isanta</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Pueblonuevo del Terrible</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Bodonal de la Sierra</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Alconchel</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>31.22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Calera de León</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Marquet</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Castropol</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Iglesias</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Ubrique</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>99.68000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Fuente de Cantos</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Fuentes de León</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Lobón</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Guareña</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Casas de Don Pedro</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Cabeza del Buey</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Burguillos del Cerro</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Ribera de Abajo</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Oteruelo de Campos</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Tabernes Blanques</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>71.56999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Covarrubias</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Aldearrubia</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Carboneras</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>65.93000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Vélez-Rubio</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Níjar</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>168.77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Zurgena</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Dalías</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Vícar</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Abrucena</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Coín</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>140.87</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Valdefuentes</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Jimera de Líbar</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Ezquioga-Ichaso</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Xove</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44.46</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Zambrana</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Cambre</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Arroyo de San Serván</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Cedeira</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>58.02</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Añana</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Llano de Bureba</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Aranga</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>35.16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Culleredo</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>160.23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Adrada de Haza</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Armiñón</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Legazpia</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Jabalquinto</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Cerezo de Río Tirón</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Castellnou de Seana</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Villafamés</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>38.47</v>
       </c>
     </row>
   </sheetData>
